--- a/01.Doc/01.요구사항정의서/물류관리시스템_요구사항정의서_250401.xlsx
+++ b/01.Doc/01.요구사항정의서/물류관리시스템_요구사항정의서_250401.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\2025\PrivateProject\LMIS\01.Doc\01.요구사항정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A1B746-3FC3-45D3-B7DD-11F8A75E5895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE178E3-D4D1-49D3-8184-57A58D1ABCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{805F09F1-BD61-458A-A67B-FDCA23435B12}"/>
   </bookViews>
@@ -1234,10 +1234,10 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
